--- a/app_cache/sunmertime_verykship_shipment.xlsx
+++ b/app_cache/sunmertime_verykship_shipment.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Aamna C</t>
+          <t>Tiffany Villa</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
@@ -729,19 +729,19 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>299 Royal Coach Lane</t>
+          <t>3310 Haydenpark Lane</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>SOUTHBURY</t>
+          <t>HENRICO</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>06488</t>
+          <t>23233</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -768,7 +768,7 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>"La Grace - Beaded Choker"</t>
+          <t>"Dainty Baroque Pearl Ring"</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -778,138 +778,13 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>33.50</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Audrey Xu</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>7783179726</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>3302-4670 Assembly Way</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Burnaby</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>BC</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>V5H 0H3</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>paula hartman</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>7788386913</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1222 Lockewood Dr.</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Lynchburg</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>24502</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Pak</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>"Earth Tone Beaded Necklace"</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>38.00</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
